--- a/Notebooks/final_asan1_1.xlsx
+++ b/Notebooks/final_asan1_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1657">
   <si>
     <t>AID</t>
   </si>
@@ -17967,6 +17967,9 @@
       <c r="H175" s="6" t="s">
         <v>1278</v>
       </c>
+      <c r="L175" s="5" t="s">
+        <v>1175</v>
+      </c>
       <c r="M175" s="5">
         <v>0.0</v>
       </c>
@@ -18008,6 +18011,9 @@
       <c r="H176" s="6" t="s">
         <v>1284</v>
       </c>
+      <c r="L176" s="5" t="s">
+        <v>1175</v>
+      </c>
       <c r="M176" s="5">
         <v>0.0</v>
       </c>
@@ -18055,6 +18061,9 @@
       <c r="H177" s="6" t="s">
         <v>1292</v>
       </c>
+      <c r="L177" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M177" s="5">
         <v>0.0</v>
       </c>
@@ -18102,6 +18111,9 @@
       <c r="H178" s="6" t="s">
         <v>1299</v>
       </c>
+      <c r="L178" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M178" s="5">
         <v>0.0</v>
       </c>
@@ -18149,6 +18161,9 @@
       <c r="H179" s="6" t="s">
         <v>1307</v>
       </c>
+      <c r="L179" s="5" t="s">
+        <v>1175</v>
+      </c>
       <c r="M179" s="5">
         <v>0.0</v>
       </c>
@@ -18196,6 +18211,9 @@
       <c r="H180" s="6" t="s">
         <v>1315</v>
       </c>
+      <c r="L180" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M180" s="5">
         <v>0.0</v>
       </c>
@@ -18243,6 +18261,9 @@
       <c r="H181" s="6" t="s">
         <v>1323</v>
       </c>
+      <c r="L181" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M181" s="5">
         <v>0.0</v>
       </c>
@@ -18290,6 +18311,9 @@
       <c r="H182" s="6" t="s">
         <v>1331</v>
       </c>
+      <c r="L182" s="5" t="s">
+        <v>1175</v>
+      </c>
       <c r="M182" s="5">
         <v>1.0</v>
       </c>
@@ -18331,6 +18355,9 @@
       <c r="H183" s="6" t="s">
         <v>1337</v>
       </c>
+      <c r="L183" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M183" s="5">
         <v>0.0</v>
       </c>
@@ -18381,6 +18408,9 @@
       <c r="K184" s="5" t="s">
         <v>1346</v>
       </c>
+      <c r="L184" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M184" s="5">
         <v>0.0</v>
       </c>
@@ -18425,6 +18455,9 @@
       <c r="H185" s="6" t="s">
         <v>1353</v>
       </c>
+      <c r="L185" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M185" s="5">
         <v>0.0</v>
       </c>
@@ -18469,6 +18502,9 @@
       <c r="H186" s="6" t="s">
         <v>1360</v>
       </c>
+      <c r="L186" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M186" s="5">
         <v>0.0</v>
       </c>
@@ -18513,6 +18549,9 @@
       <c r="H187" s="6" t="s">
         <v>1367</v>
       </c>
+      <c r="L187" s="5" t="s">
+        <v>1175</v>
+      </c>
       <c r="M187" s="5">
         <v>1.0</v>
       </c>
@@ -18560,6 +18599,9 @@
       <c r="H188" s="6" t="s">
         <v>1375</v>
       </c>
+      <c r="L188" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M188" s="5">
         <v>0.0</v>
       </c>
@@ -18610,6 +18652,9 @@
       <c r="K189" s="5" t="s">
         <v>1384</v>
       </c>
+      <c r="L189" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M189" s="5">
         <v>0.0</v>
       </c>
@@ -18657,6 +18702,9 @@
       <c r="K190" s="5" t="s">
         <v>1384</v>
       </c>
+      <c r="L190" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M190" s="5">
         <v>0.0</v>
       </c>
@@ -18704,6 +18752,9 @@
       <c r="H191" s="6" t="s">
         <v>1399</v>
       </c>
+      <c r="L191" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M191" s="5">
         <v>0.0</v>
       </c>
@@ -18751,6 +18802,9 @@
       <c r="H192" s="6" t="s">
         <v>1407</v>
       </c>
+      <c r="L192" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M192" s="5">
         <v>0.0</v>
       </c>
@@ -18798,6 +18852,9 @@
       <c r="H193" s="6" t="s">
         <v>1415</v>
       </c>
+      <c r="L193" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M193" s="5">
         <v>0.0</v>
       </c>
@@ -18842,6 +18899,9 @@
       <c r="H194" s="6" t="s">
         <v>1422</v>
       </c>
+      <c r="L194" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M194" s="5">
         <v>0.0</v>
       </c>
@@ -18886,6 +18946,9 @@
       <c r="H195" s="6" t="s">
         <v>1429</v>
       </c>
+      <c r="L195" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M195" s="5">
         <v>0.0</v>
       </c>
@@ -18936,6 +18999,9 @@
       <c r="K196" s="5" t="s">
         <v>1438</v>
       </c>
+      <c r="L196" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M196" s="5">
         <v>0.0</v>
       </c>
@@ -18977,6 +19043,9 @@
       <c r="K197" s="5" t="s">
         <v>1444</v>
       </c>
+      <c r="L197" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M197" s="5">
         <v>0.0</v>
       </c>
@@ -19018,6 +19087,9 @@
       <c r="K198" s="5" t="s">
         <v>1444</v>
       </c>
+      <c r="L198" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M198" s="5">
         <v>0.0</v>
       </c>
@@ -19059,6 +19131,9 @@
       <c r="K199" s="5" t="s">
         <v>1454</v>
       </c>
+      <c r="L199" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M199" s="5">
         <v>0.0</v>
       </c>
@@ -19100,6 +19175,9 @@
       <c r="K200" s="5" t="s">
         <v>1460</v>
       </c>
+      <c r="L200" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M200" s="5">
         <v>0.0</v>
       </c>
@@ -19144,6 +19222,9 @@
       <c r="K201" s="5" t="s">
         <v>1467</v>
       </c>
+      <c r="L201" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M201" s="5">
         <v>0.0</v>
       </c>
@@ -19194,6 +19275,9 @@
       <c r="K202" s="5" t="s">
         <v>1476</v>
       </c>
+      <c r="L202" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M202" s="5">
         <v>0.0</v>
       </c>
@@ -19238,6 +19322,9 @@
       <c r="G203" s="5" t="s">
         <v>1483</v>
       </c>
+      <c r="L203" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M203" s="5">
         <v>1.0</v>
       </c>
@@ -19285,6 +19372,9 @@
       <c r="K204" s="5" t="s">
         <v>1491</v>
       </c>
+      <c r="L204" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M204" s="5">
         <v>0.0</v>
       </c>
@@ -19329,6 +19419,9 @@
       <c r="H205" s="6" t="s">
         <v>1498</v>
       </c>
+      <c r="L205" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M205" s="5">
         <v>0.0</v>
       </c>
@@ -19370,6 +19463,9 @@
       <c r="K206" s="5" t="s">
         <v>1504</v>
       </c>
+      <c r="L206" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M206" s="5">
         <v>0.0</v>
       </c>
@@ -19417,6 +19513,9 @@
       <c r="K207" s="5" t="s">
         <v>1512</v>
       </c>
+      <c r="L207" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M207" s="5">
         <v>0.0</v>
       </c>
@@ -19464,6 +19563,9 @@
       <c r="K208" s="5" t="s">
         <v>1520</v>
       </c>
+      <c r="L208" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M208" s="5">
         <v>0.0</v>
       </c>
@@ -19511,6 +19613,9 @@
       <c r="H209" s="6" t="s">
         <v>1528</v>
       </c>
+      <c r="L209" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M209" s="5">
         <v>0.0</v>
       </c>
@@ -19552,6 +19657,9 @@
       <c r="H210" s="6" t="s">
         <v>1534</v>
       </c>
+      <c r="L210" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M210" s="5">
         <v>0.0</v>
       </c>
@@ -19599,6 +19707,9 @@
       <c r="H211" s="6" t="s">
         <v>1542</v>
       </c>
+      <c r="L211" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M211" s="5">
         <v>0.0</v>
       </c>
@@ -19643,6 +19754,9 @@
       <c r="H212" s="6" t="s">
         <v>1549</v>
       </c>
+      <c r="L212" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M212" s="5">
         <v>0.0</v>
       </c>
@@ -19687,6 +19801,9 @@
       <c r="H213" s="6" t="s">
         <v>1556</v>
       </c>
+      <c r="L213" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M213" s="5">
         <v>0.0</v>
       </c>
@@ -19731,6 +19848,9 @@
       <c r="H214" s="6" t="s">
         <v>1562</v>
       </c>
+      <c r="L214" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M214" s="5">
         <v>0.0</v>
       </c>
@@ -19781,6 +19901,9 @@
       <c r="K215" s="5" t="s">
         <v>1571</v>
       </c>
+      <c r="L215" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M215" s="5">
         <v>0.0</v>
       </c>
@@ -19828,6 +19951,9 @@
       <c r="H216" s="6" t="s">
         <v>1579</v>
       </c>
+      <c r="L216" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M216" s="5">
         <v>0.0</v>
       </c>
@@ -19872,6 +19998,9 @@
       <c r="H217" s="6" t="s">
         <v>1586</v>
       </c>
+      <c r="L217" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M217" s="5">
         <v>0.0</v>
       </c>
@@ -19916,6 +20045,9 @@
       <c r="H218" s="6" t="s">
         <v>1592</v>
       </c>
+      <c r="L218" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M218" s="5">
         <v>0.0</v>
       </c>
@@ -19963,6 +20095,9 @@
       <c r="H219" s="6" t="s">
         <v>1599</v>
       </c>
+      <c r="L219" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M219" s="5">
         <v>0.0</v>
       </c>
@@ -20007,6 +20142,9 @@
       <c r="H220" s="6" t="s">
         <v>1606</v>
       </c>
+      <c r="L220" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="M220" s="5">
         <v>0.0</v>
       </c>
@@ -20054,6 +20192,9 @@
       <c r="H221" s="6" t="s">
         <v>1613</v>
       </c>
+      <c r="L221" s="5" t="s">
+        <v>1175</v>
+      </c>
       <c r="M221" s="5">
         <v>0.0</v>
       </c>
@@ -20252,7 +20393,7 @@
         <v>1642</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>1622</v>
+        <v>666</v>
       </c>
       <c r="M225" s="5">
         <v>0.0</v>
@@ -20301,6 +20442,9 @@
       <c r="K226" s="5" t="s">
         <v>1649</v>
       </c>
+      <c r="L226" s="5" t="s">
+        <v>1175</v>
+      </c>
       <c r="M226" s="5">
         <v>1.0</v>
       </c>
@@ -20344,6 +20488,9 @@
       </c>
       <c r="H227" s="6" t="s">
         <v>1656</v>
+      </c>
+      <c r="L227" s="5" t="s">
+        <v>1175</v>
       </c>
       <c r="M227" s="5">
         <v>1.0</v>
